--- a/instance/zyjk/SAAS/i/data/sfb2.xlsx
+++ b/instance/zyjk/SAAS/i/data/sfb2.xlsx
@@ -17,10 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/MM/dd"/>
-  </numFmts>
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -32,10 +30,6 @@
       <name val="宋体"/>
       <sz val="14.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -84,27 +78,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" wrapText="true" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:HF2"/>
+  <dimension ref="A1:HF1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.0" customWidth="true"/>
+    <col min="1" max="1" width="6.0" customWidth="true"/>
     <col min="2" max="2" width="6.0" customWidth="true"/>
     <col min="3" max="3" width="6.0" customWidth="true"/>
     <col min="4" max="4" width="12.0" customWidth="true"/>
@@ -1392,292 +1384,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>斤斤计较</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>44678.671689814815</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>123/88</t>
-        </is>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="X2" s="2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
-      <c r="BU2" s="2"/>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="2"/>
-      <c r="CA2" s="2"/>
-      <c r="CB2" s="2"/>
-      <c r="CC2" s="2"/>
-      <c r="CD2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CF2" s="2"/>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2"/>
-      <c r="CK2" s="2"/>
-      <c r="CL2" s="2"/>
-      <c r="CM2" s="2"/>
-      <c r="CN2" s="2"/>
-      <c r="CO2" s="2"/>
-      <c r="CP2" s="2"/>
-      <c r="CQ2" s="2"/>
-      <c r="CR2" s="2"/>
-      <c r="CS2" s="2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CT2" s="2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CU2" s="2"/>
-      <c r="CV2" s="2"/>
-      <c r="CW2" s="2"/>
-      <c r="CX2" s="2"/>
-      <c r="CY2" s="2"/>
-      <c r="CZ2" s="2"/>
-      <c r="DA2" s="2"/>
-      <c r="DB2" s="2"/>
-      <c r="DC2" s="2"/>
-      <c r="DD2" s="2"/>
-      <c r="DE2" s="2"/>
-      <c r="DF2" s="2"/>
-      <c r="DG2" s="2"/>
-      <c r="DH2" s="2"/>
-      <c r="DI2" s="2"/>
-      <c r="DJ2" s="2"/>
-      <c r="DK2" s="2"/>
-      <c r="DL2" s="2"/>
-      <c r="DM2" s="2"/>
-      <c r="DN2" s="2"/>
-      <c r="DO2" s="2"/>
-      <c r="DP2" s="2"/>
-      <c r="DQ2" s="2"/>
-      <c r="DR2" s="2"/>
-      <c r="DS2" s="2"/>
-      <c r="DT2" s="2"/>
-      <c r="DU2" s="2"/>
-      <c r="DV2" s="2"/>
-      <c r="DW2" s="2"/>
-      <c r="DX2" s="2"/>
-      <c r="DY2" s="2"/>
-      <c r="DZ2" s="2"/>
-      <c r="EA2" s="2"/>
-      <c r="EB2" s="2"/>
-      <c r="EC2" s="2"/>
-      <c r="ED2" s="2"/>
-      <c r="EE2" s="2"/>
-      <c r="EF2" s="2"/>
-      <c r="EG2" s="2"/>
-      <c r="EH2" s="2"/>
-      <c r="EI2" s="2"/>
-      <c r="EJ2" s="2"/>
-      <c r="EK2" s="2"/>
-      <c r="EL2" s="2"/>
-      <c r="EM2" s="2"/>
-      <c r="EN2" s="2"/>
-      <c r="EO2" s="2"/>
-      <c r="EP2" s="2"/>
-      <c r="EQ2" s="2"/>
-      <c r="ER2" s="2"/>
-      <c r="ES2" s="2"/>
-      <c r="ET2" s="2"/>
-      <c r="EU2" s="2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="EV2" s="2"/>
-      <c r="EW2" s="2"/>
-      <c r="EX2" s="2"/>
-      <c r="EY2" s="2"/>
-      <c r="EZ2" s="2"/>
-      <c r="FA2" s="2"/>
-      <c r="FB2" s="2"/>
-      <c r="FC2" s="2"/>
-      <c r="FD2" s="2"/>
-      <c r="FE2" s="2"/>
-      <c r="FF2" s="2"/>
-      <c r="FG2" s="2"/>
-      <c r="FH2" s="2"/>
-      <c r="FI2" s="2"/>
-      <c r="FJ2" s="2"/>
-      <c r="FK2" s="2"/>
-      <c r="FL2" s="2"/>
-      <c r="FM2" s="2"/>
-      <c r="FN2" s="2"/>
-      <c r="FO2" s="2"/>
-      <c r="FP2" s="2"/>
-      <c r="FQ2" s="2"/>
-      <c r="FR2" s="2"/>
-      <c r="FS2" s="2"/>
-      <c r="FT2" s="2"/>
-      <c r="FU2" s="2"/>
-      <c r="FV2" s="2"/>
-      <c r="FW2" s="2"/>
-      <c r="FX2" s="2"/>
-      <c r="FY2" s="2"/>
-      <c r="FZ2" s="2"/>
-      <c r="GA2" s="2"/>
-      <c r="GB2" s="2"/>
-      <c r="GC2" s="2"/>
-      <c r="GD2" s="2"/>
-      <c r="GE2" s="2"/>
-      <c r="GF2" s="2"/>
-      <c r="GG2" s="2"/>
-      <c r="GH2" s="2"/>
-      <c r="GI2" s="2"/>
-      <c r="GJ2" s="2"/>
-      <c r="GK2" s="2"/>
-      <c r="GL2" s="2"/>
-      <c r="GM2" s="2"/>
-      <c r="GN2" s="2"/>
-      <c r="GO2" s="2"/>
-      <c r="GP2" s="2"/>
-      <c r="GQ2" s="2"/>
-      <c r="GR2" s="2"/>
-      <c r="GS2" s="2"/>
-      <c r="GT2" s="2"/>
-      <c r="GU2" s="2"/>
-      <c r="GV2" s="2"/>
-      <c r="GW2" s="2"/>
-      <c r="GX2" s="2"/>
-      <c r="GY2" s="2"/>
-      <c r="GZ2" s="2"/>
-      <c r="HA2" s="2"/>
-      <c r="HB2" s="2"/>
-      <c r="HC2" s="2"/>
-      <c r="HD2" s="2"/>
-      <c r="HE2" s="2"/>
-      <c r="HF2" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
